--- a/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
@@ -621,25 +621,25 @@
         <v>157</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E7" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.2651933701657458</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         <v>157</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E8" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.2651933701657458</v>
       </c>
     </row>
     <row r="9">
@@ -679,25 +679,25 @@
         <v>154</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="E9" t="n">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.2696629213483146</v>
       </c>
     </row>
     <row r="10">
@@ -708,25 +708,25 @@
         <v>152</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="11">
@@ -737,25 +737,25 @@
         <v>142</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="E11" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.2891566265060241</v>
       </c>
     </row>
     <row r="12">
@@ -766,25 +766,25 @@
         <v>129</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="E12" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1782945736434109</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.3026315789473684</v>
       </c>
     </row>
     <row r="13">

--- a/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
@@ -592,25 +592,25 @@
         <v>157</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2651933701657458</v>
       </c>
     </row>
     <row r="7">

--- a/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
@@ -592,25 +592,25 @@
         <v>157</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="E6" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2651933701657458</v>
       </c>
     </row>
     <row r="7">
@@ -795,10 +795,10 @@
         <v>109</v>
       </c>
       <c r="C13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2162162162162162</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3555555555555556</v>
+        <v>0.3484848484848485</v>
       </c>
     </row>
     <row r="14">
@@ -824,10 +824,10 @@
         <v>93</v>
       </c>
       <c r="C14" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>

--- a/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
+++ b/media/output/result/sepsis_cases_4_complex_evaluation_weighted_edit_distance.xlsx
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="D13" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -807,13 +807,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2110091743119266</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.3285714285714286</v>
       </c>
     </row>
     <row r="14">
@@ -827,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -836,13 +836,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2473118279569892</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0.396551724137931</v>
+        <v>0.3833333333333333</v>
       </c>
     </row>
     <row r="15">
@@ -853,10 +853,10 @@
         <v>82</v>
       </c>
       <c r="C15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2560975609756098</v>
+        <v>0.2637362637362637</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4077669902912621</v>
+        <v>0.4173913043478261</v>
       </c>
     </row>
   </sheetData>
